--- a/SOURCE-FORMAT.xlsx
+++ b/SOURCE-FORMAT.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duban Serrano\Desktop\FINAL-REPORT-SRLIMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\OneDrive\Documents\FINAL-REPORT-SRLIMS\FINAL-REPORT-SRLIMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A561D4F-0603-44C2-83F2-9AE3F21C1FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B685C3E-B962-4CA7-8C32-3F866F5A588F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{71A5596B-7095-428F-9767-7FBDBE6A5043}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{71A5596B-7095-428F-9767-7FBDBE6A5043}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="1" r:id="rId1"/>
     <sheet name="Header_lab" sheetId="2" r:id="rId2"/>
+    <sheet name="Footer" sheetId="3" r:id="rId3"/>
+    <sheet name="header_analitic" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <r>
       <rPr>
@@ -150,16 +152,50 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Saul Roa
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Technical Manager / Quality Assurance Officer - SRL</t>
+    </r>
+  </si>
+  <si>
+    <t>04/23/25</t>
+  </si>
+  <si>
+    <t>This report, which includes the attached Chain‐Of‐Custody, shall not be 
+reported except in full, without written approval of the laboratory</t>
+  </si>
+  <si>
+    <t>Page 1 of  9</t>
+  </si>
+  <si>
+    <t>****************************** Analytical Results ******************************</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,8 +249,13 @@
       <name val="Bookman Old Style"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,8 +273,14 @@
         <fgColor rgb="FFE3EFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -274,12 +321,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -296,6 +398,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -360,6 +474,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -375,7 +492,34 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -452,7 +596,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -774,167 +918,167 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="71.85546875" customWidth="1"/>
-    <col min="36" max="36" width="62.7109375" customWidth="1"/>
+    <col min="11" max="11" width="71.88671875" customWidth="1"/>
+    <col min="36" max="36" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="2"/>
     </row>
-    <row r="2" spans="1:44" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
       <c r="AQ2" s="1"/>
       <c r="AR2" s="2"/>
     </row>
-    <row r="3" spans="1:44" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
       <c r="U3" s="3"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
       <c r="AC3" s="3"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
       <c r="AQ3" s="1"/>
       <c r="AR3" s="2"/>
     </row>
-    <row r="4" spans="1:44" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -944,160 +1088,160 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
-      <c r="V4" s="10" t="s">
+      <c r="V4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
-      <c r="AG4" s="15" t="s">
+      <c r="AG4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="16"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="20"/>
+      <c r="AP4" s="20"/>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="2"/>
     </row>
-    <row r="5" spans="1:44" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
       <c r="U5" s="3"/>
-      <c r="V5" s="16" t="s">
+      <c r="V5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="17" t="s">
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="18" t="s">
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AL5" s="18"/>
-      <c r="AM5" s="18"/>
-      <c r="AN5" s="18"/>
-      <c r="AO5" s="18"/>
-      <c r="AP5" s="18"/>
+      <c r="AL5" s="22"/>
+      <c r="AM5" s="22"/>
+      <c r="AN5" s="22"/>
+      <c r="AO5" s="22"/>
+      <c r="AP5" s="22"/>
       <c r="AQ5" s="1"/>
       <c r="AR5" s="2"/>
     </row>
-    <row r="6" spans="1:44" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
       <c r="U6" s="3"/>
-      <c r="V6" s="19" t="s">
+      <c r="V6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="20" t="s">
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="20"/>
-      <c r="AH6" s="20"/>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="20"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="21"/>
-      <c r="AM6" s="21"/>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="21"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="24"/>
+      <c r="AI6" s="24"/>
+      <c r="AJ6" s="24"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="25"/>
       <c r="AQ6" s="1"/>
       <c r="AR6" s="2"/>
     </row>
-    <row r="7" spans="1:44" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
@@ -1106,50 +1250,50 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
-      <c r="AD7" s="14" t="s">
+      <c r="AD7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="14"/>
-      <c r="AH7" s="14"/>
-      <c r="AI7" s="14"/>
-      <c r="AJ7" s="14"/>
-      <c r="AK7" s="13" t="s">
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AL7" s="13"/>
-      <c r="AM7" s="13"/>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="13"/>
-      <c r="AP7" s="13"/>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="17"/>
+      <c r="AO7" s="17"/>
+      <c r="AP7" s="17"/>
       <c r="AQ7" s="1"/>
       <c r="AR7" s="2"/>
     </row>
-    <row r="8" spans="1:44" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
@@ -1158,48 +1302,48 @@
       <c r="AA8" s="5"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
-      <c r="AD8" s="20" t="s">
+      <c r="AD8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="18"/>
-      <c r="AL8" s="18"/>
-      <c r="AM8" s="18"/>
-      <c r="AN8" s="18"/>
-      <c r="AO8" s="18"/>
-      <c r="AP8" s="18"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="24"/>
+      <c r="AH8" s="24"/>
+      <c r="AI8" s="24"/>
+      <c r="AJ8" s="24"/>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="22"/>
+      <c r="AM8" s="22"/>
+      <c r="AN8" s="22"/>
+      <c r="AO8" s="22"/>
+      <c r="AP8" s="22"/>
       <c r="AQ8" s="1"/>
       <c r="AR8" s="2"/>
     </row>
-    <row r="9" spans="1:44" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
@@ -1208,21 +1352,21 @@
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
-      <c r="AD9" s="20" t="s">
+      <c r="AD9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="18"/>
-      <c r="AM9" s="18"/>
-      <c r="AN9" s="18"/>
-      <c r="AO9" s="18"/>
-      <c r="AP9" s="18"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22"/>
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22"/>
       <c r="AQ9" s="1"/>
       <c r="AR9" s="2"/>
     </row>
@@ -1272,115 +1416,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85446D6D-9AA8-44DB-87A5-C36CC350FC0C}">
   <dimension ref="A1:AR3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3:AP3"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AG15" sqref="AG15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="26" t="s">
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="24" t="s">
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24" t="s">
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="2"/>
     </row>
-    <row r="3" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="32" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
-      <c r="AJ3" s="32"/>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="32"/>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="32"/>
-      <c r="AO3" s="32"/>
-      <c r="AP3" s="32"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="31"/>
       <c r="AQ3" s="1"/>
       <c r="AR3" s="2"/>
     </row>
@@ -1402,4 +1546,242 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{206CD850-83DE-495D-B658-54A01D4BF29B}">
+  <dimension ref="A1:AR4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:44" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:44" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="2"/>
+    </row>
+    <row r="3" spans="1:44" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="39"/>
+      <c r="AO3" s="39"/>
+      <c r="AP3" s="39"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="2"/>
+    </row>
+    <row r="4" spans="1:44" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="41">
+        <v>0.42152777777777778</v>
+      </c>
+      <c r="I4" s="41"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="9"/>
+      <c r="AK4" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL4" s="43"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="43"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C2:R2"/>
+    <mergeCell ref="B3:AP3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="L4:AI4"/>
+    <mergeCell ref="AK4:AP4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2866F64-6B8E-418B-8712-1F60F3AE0BEF}">
+  <dimension ref="A1:AR1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AP1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:44" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="46"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:AP1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>